--- a/examples/simulation_lci_mapping.xlsx
+++ b/examples/simulation_lci_mapping.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\istrateir\Research\Projects\hsc_to_lci\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCB1A74-81F8-41AA-A8DB-A2343181AA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB307A8-BCEF-43D2-835D-EAB9A4E027DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>Stream Name</t>
   </si>
@@ -183,6 +183,48 @@
   </si>
   <si>
     <t>market for compressed air, 1000 kPa gauge</t>
+  </si>
+  <si>
+    <t>Thermal Energy Flow</t>
+  </si>
+  <si>
+    <t>Heat, waste</t>
+  </si>
+  <si>
+    <t>market for inert waste, for final disposal</t>
+  </si>
+  <si>
+    <t>inert waste, for final disposal</t>
+  </si>
+  <si>
+    <t>Solids f1</t>
+  </si>
+  <si>
+    <t>Solids f2</t>
+  </si>
+  <si>
+    <t>SO4(-2a)</t>
+  </si>
+  <si>
+    <t>Sulfate</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>ground-</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>Na(+a)</t>
+  </si>
+  <si>
+    <t>Sodium</t>
   </si>
 </sst>
 </file>
@@ -223,12 +265,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -241,9 +298,7 @@
       <top style="thin">
         <color rgb="FFA9A9A9"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFA9A9A9"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -252,15 +307,15 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,28 +597,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A24" sqref="A24:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -580,10 +635,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -592,12 +647,14 @@
       <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -606,12 +663,14 @@
       <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -620,12 +679,14 @@
       <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -634,12 +695,14 @@
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -648,12 +711,14 @@
       <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -662,12 +727,14 @@
       <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -676,12 +743,14 @@
       <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -690,12 +759,14 @@
       <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -704,12 +775,14 @@
       <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -718,12 +791,14 @@
       <c r="D11" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -732,98 +807,193 @@
       <c r="D12" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="F16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/examples/simulation_lci_mapping.xlsx
+++ b/examples/simulation_lci_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\istrateir\Research\Projects\hsc_to_lci\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB307A8-BCEF-43D2-835D-EAB9A4E027DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E538EEC5-B1E4-45D2-8C11-4983744A6D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,7 +600,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD46"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
